--- a/ProcessControlChart.xlsx
+++ b/ProcessControlChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Giacomo\Universita\ISW2\RampartProcessoControlChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7429150-944C-481C-8E44-08D614119185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C5EA31-34E3-478A-95F7-9D9EB55E232C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60250077-E9D7-4A34-AB1D-DB9B51EB99DB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="452">
   <si>
     <t>RAMPART-1</t>
   </si>
@@ -993,12 +993,6 @@
     <t>TOTALE</t>
   </si>
   <si>
-    <t>commit con almeno un ticket</t>
-  </si>
-  <si>
-    <t>commit senza neanche un ticket</t>
-  </si>
-  <si>
     <t>Conteggio di key</t>
   </si>
   <si>
@@ -1402,6 +1396,33 @@
   </si>
   <si>
     <t>Average Commit in months</t>
+  </si>
+  <si>
+    <t>Questa tabella contiene le date di risoluzione dei singoli ticket</t>
+  </si>
+  <si>
+    <t>Un ticket risolto viene definito valido solo se in quel mese ha almeno un commit</t>
+  </si>
+  <si>
+    <t>Il commit si riferisce a un ticket risolto?</t>
+  </si>
+  <si>
+    <t>Numero di commit con all'interno del messaggio un riferimento a un ticket</t>
+  </si>
+  <si>
+    <t>commit che pur avendo un TicketID nel messaggio non hanno neanche un ticket fixed</t>
+  </si>
+  <si>
+    <t>commit con almeno un ticket fixed nel messaggio di commit</t>
+  </si>
+  <si>
+    <t>Commit totali</t>
+  </si>
+  <si>
+    <t>In totale nella repository, sono presenti 8011 commit</t>
+  </si>
+  <si>
+    <t>% di commit che non hanno un ticket nel messaggio. La maggioranza della storia di git è persa</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1502,19 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1490,15 +1523,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3471,6 +3495,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3537,6 +3564,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7512,7 +7542,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E04EDC2-4916-4B43-916F-B265B2598792}" name="Tabella pivot6" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E04EDC2-4916-4B43-916F-B265B2598792}" name="Tabella pivot6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0">
@@ -8126,12 +8156,12 @@
     <sortCondition ref="B1:B288"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B8F0DC09-57F4-4B6E-9AE2-16596753B8F7}" uniqueName="1" name="key" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3FA619C9-E296-4641-89D4-5FB92057072A}" uniqueName="2" name="resolutionMonth" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{362371F0-2FBF-4354-AC6A-72E5FF9D7333}" uniqueName="4" name="commitInMonth" queryTableFieldId="4" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{B8F0DC09-57F4-4B6E-9AE2-16596753B8F7}" uniqueName="1" name="key" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3FA619C9-E296-4641-89D4-5FB92057072A}" uniqueName="2" name="resolutionMonth" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{362371F0-2FBF-4354-AC6A-72E5FF9D7333}" uniqueName="4" name="commitInMonth" queryTableFieldId="4" dataDxfId="5">
       <calculatedColumnFormula>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9B62238E-48F2-4C80-85AD-BF1DB69E64EC}" uniqueName="6" name="valido" queryTableFieldId="6" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{9B62238E-48F2-4C80-85AD-BF1DB69E64EC}" uniqueName="6" name="valido" queryTableFieldId="6" dataDxfId="4">
       <calculatedColumnFormula>IF(RAMPART_TicketsID[[#This Row],[commitInMonth]]&gt;0,TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8143,8 +8173,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8155C627-5879-49E7-A113-7DA5FA42E2C7}" name="RAMPART_git_commits" displayName="RAMPART_git_commits" ref="A1:C413" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C413" xr:uid="{EAA86344-6220-42DF-9F6C-8E7358D67E3C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{244929E4-A898-41B6-A67D-D75A9E627FE7}" uniqueName="1" name="ticketID" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{17AED02B-BDF0-404D-9D95-CE8654B09036}" uniqueName="2" name="commitDate" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{244929E4-A898-41B6-A67D-D75A9E627FE7}" uniqueName="1" name="ticketID" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{17AED02B-BDF0-404D-9D95-CE8654B09036}" uniqueName="2" name="commitDate" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{2835430D-B7A2-4E06-A415-D44290C72112}" uniqueName="3" name="hasFixedTicket" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8152,14 +8182,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B199C2EC-6F84-48E1-9B0D-31DB1A9056C4}" name="RAMPART_commit_months" displayName="RAMPART_commit_months" ref="A1:B123" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B199C2EC-6F84-48E1-9B0D-31DB1A9056C4}" name="RAMPART_commit_months" displayName="RAMPART_commit_months" ref="A1:B124" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:B123" xr:uid="{B0542CD3-DEF6-4A49-AE44-40E7DC7C00E9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B123">
     <sortCondition ref="A1:A123"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{77C414E8-00A7-4D78-88C1-7769F1DF802F}" uniqueName="1" name="commitMonth" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{062FC514-DEBF-45E1-9532-22D9234D3965}" uniqueName="2" name="commits" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{77C414E8-00A7-4D78-88C1-7769F1DF802F}" uniqueName="1" name="commitMonth" totalsRowLabel="Commit totali" queryTableFieldId="1" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{062FC514-DEBF-45E1-9532-22D9234D3965}" uniqueName="2" name="commits" totalsRowFunction="custom" queryTableFieldId="2">
+      <totalsRowFormula>SUM(RAMPART_commit_months[commits])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8483,24 +8515,24 @@
         <v>287</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -8510,11 +8542,11 @@
         <v>5.1818181818181817</v>
       </c>
       <c r="D2">
-        <f>C2+3*F2</f>
+        <f t="shared" ref="D2:D33" si="0">C2+3*F2</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E2">
-        <f>IF(C2-3*F2&lt;0,0,C2-3*F2)</f>
+        <f t="shared" ref="E2:E33" si="1">IF(C2-3*F2&lt;0,0,C2-3*F2)</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -8524,1297 +8556,1297 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C56" si="0">AVERAGE($B$2:$B$56)</f>
+        <f t="shared" ref="C3:C56" si="2">AVERAGE($B$2:$B$56)</f>
         <v>5.1818181818181817</v>
       </c>
       <c r="D3">
-        <f>C3+3*F3</f>
+        <f t="shared" si="0"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E3">
-        <f>IF(C3-3*F3&lt;0,0,C3-3*F3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F56" si="1">_xlfn.STDEV.P($B$2:$B$56)</f>
+        <f t="shared" ref="F3:F56" si="3">_xlfn.STDEV.P($B$2:$B$56)</f>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D4">
-        <f>C4+3*F4</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E4">
-        <f>IF(C4-3*F4&lt;0,0,C4-3*F4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D5">
-        <f>C5+3*F5</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E5">
-        <f>IF(C5-3*F5&lt;0,0,C5-3*F5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B6" s="1">
         <v>13</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D6">
-        <f>C6+3*F6</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E6">
-        <f>IF(C6-3*F6&lt;0,0,C6-3*F6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B7" s="1">
         <v>12</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D7">
-        <f>C7+3*F7</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E7">
-        <f>IF(C7-3*F7&lt;0,0,C7-3*F7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D8">
-        <f>C8+3*F8</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E8">
-        <f>IF(C8-3*F8&lt;0,0,C8-3*F8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D9">
-        <f>C9+3*F9</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E9">
-        <f>IF(C9-3*F9&lt;0,0,C9-3*F9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D10">
-        <f>C10+3*F10</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E10">
-        <f>IF(C10-3*F10&lt;0,0,C10-3*F10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D11">
-        <f>C11+3*F11</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E11">
-        <f>IF(C11-3*F11&lt;0,0,C11-3*F11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B12" s="1">
         <v>16</v>
       </c>
       <c r="C12">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D12">
-        <f>C12+3*F12</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E12">
-        <f>IF(C12-3*F12&lt;0,0,C12-3*F12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B13" s="1">
         <v>6</v>
       </c>
       <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D13">
-        <f>C13+3*F13</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E13">
-        <f>IF(C13-3*F13&lt;0,0,C13-3*F13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B14" s="1">
         <v>7</v>
       </c>
       <c r="C14">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D14">
-        <f>C14+3*F14</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E14">
-        <f>IF(C14-3*F14&lt;0,0,C14-3*F14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D15">
-        <f>C15+3*F15</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E15">
-        <f>IF(C15-3*F15&lt;0,0,C15-3*F15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B16" s="1">
         <v>16</v>
       </c>
       <c r="C16">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D16">
-        <f>C16+3*F16</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E16">
-        <f>IF(C16-3*F16&lt;0,0,C16-3*F16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
       </c>
       <c r="C17">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D17">
-        <f>C17+3*F17</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E17">
-        <f>IF(C17-3*F17&lt;0,0,C17-3*F17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D18">
-        <f>C18+3*F18</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E18">
-        <f>IF(C18-3*F18&lt;0,0,C18-3*F18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D19">
-        <f>C19+3*F19</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E19">
-        <f>IF(C19-3*F19&lt;0,0,C19-3*F19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D20">
-        <f>C20+3*F20</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E20">
-        <f>IF(C20-3*F20&lt;0,0,C20-3*F20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D21">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D21">
-        <f>C21+3*F21</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E21">
-        <f>IF(C21-3*F21&lt;0,0,C21-3*F21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D22">
-        <f>C22+3*F22</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E22">
-        <f>IF(C22-3*F22&lt;0,0,C22-3*F22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D23">
-        <f>C23+3*F23</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E23">
-        <f>IF(C23-3*F23&lt;0,0,C23-3*F23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D24">
-        <f>C24+3*F24</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E24">
-        <f>IF(C24-3*F24&lt;0,0,C24-3*F24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D25">
-        <f>C25+3*F25</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E25">
-        <f>IF(C25-3*F25&lt;0,0,C25-3*F25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B26" s="1">
         <v>17</v>
       </c>
       <c r="C26">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D26">
-        <f>C26+3*F26</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E26">
-        <f>IF(C26-3*F26&lt;0,0,C26-3*F26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
       </c>
       <c r="C27">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D27">
-        <f>C27+3*F27</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E27">
-        <f>IF(C27-3*F27&lt;0,0,C27-3*F27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
       <c r="C28">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D28">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D28">
-        <f>C28+3*F28</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E28">
-        <f>IF(C28-3*F28&lt;0,0,C28-3*F28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B29" s="1">
         <v>66</v>
       </c>
       <c r="C29">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D29">
-        <f>C29+3*F29</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E29">
-        <f>IF(C29-3*F29&lt;0,0,C29-3*F29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D30">
-        <f>C30+3*F30</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E30">
-        <f>IF(C30-3*F30&lt;0,0,C30-3*F30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B31" s="1">
         <v>10</v>
       </c>
       <c r="C31">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D31">
-        <f>C31+3*F31</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E31">
-        <f>IF(C31-3*F31&lt;0,0,C31-3*F31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D32">
-        <f>C32+3*F32</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E32">
-        <f>IF(C32-3*F32&lt;0,0,C32-3*F32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33">
+        <f t="shared" si="2"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
-      </c>
-      <c r="D33">
-        <f>C33+3*F33</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E33">
-        <f>IF(C33-3*F33&lt;0,0,C33-3*F33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D34">
-        <f>C34+3*F34</f>
+        <f t="shared" ref="D34:D65" si="4">C34+3*F34</f>
         <v>33.289932947886705</v>
       </c>
       <c r="E34">
-        <f>IF(C34-3*F34&lt;0,0,C34-3*F34)</f>
+        <f t="shared" ref="E34:E65" si="5">IF(C34-3*F34&lt;0,0,C34-3*F34)</f>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D35">
-        <f>C35+3*F35</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E35">
-        <f>IF(C35-3*F35&lt;0,0,C35-3*F35)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D36">
-        <f>C36+3*F36</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E36">
-        <f>IF(C36-3*F36&lt;0,0,C36-3*F36)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D37">
-        <f>C37+3*F37</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E37">
-        <f>IF(C37-3*F37&lt;0,0,C37-3*F37)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D38">
-        <f>C38+3*F38</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E38">
-        <f>IF(C38-3*F38&lt;0,0,C38-3*F38)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D39">
-        <f>C39+3*F39</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E39">
-        <f>IF(C39-3*F39&lt;0,0,C39-3*F39)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D40">
-        <f>C40+3*F40</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E40">
-        <f>IF(C40-3*F40&lt;0,0,C40-3*F40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D41">
-        <f>C41+3*F41</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E41">
-        <f>IF(C41-3*F41&lt;0,0,C41-3*F41)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D42">
-        <f>C42+3*F42</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E42">
-        <f>IF(C42-3*F42&lt;0,0,C42-3*F42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D43">
-        <f>C43+3*F43</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E43">
-        <f>IF(C43-3*F43&lt;0,0,C43-3*F43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D44">
-        <f>C44+3*F44</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E44">
-        <f>IF(C44-3*F44&lt;0,0,C44-3*F44)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D45">
-        <f>C45+3*F45</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E45">
-        <f>IF(C45-3*F45&lt;0,0,C45-3*F45)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D46">
-        <f>C46+3*F46</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E46">
-        <f>IF(C46-3*F46&lt;0,0,C46-3*F46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D47">
-        <f>C47+3*F47</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E47">
-        <f>IF(C47-3*F47&lt;0,0,C47-3*F47)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D48">
-        <f>C48+3*F48</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E48">
-        <f>IF(C48-3*F48&lt;0,0,C48-3*F48)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D49">
-        <f>C49+3*F49</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E49">
-        <f>IF(C49-3*F49&lt;0,0,C49-3*F49)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D50">
-        <f>C50+3*F50</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E50">
-        <f>IF(C50-3*F50&lt;0,0,C50-3*F50)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B51" s="1">
         <v>7</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D51">
-        <f>C51+3*F51</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E51">
-        <f>IF(C51-3*F51&lt;0,0,C51-3*F51)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D52">
-        <f>C52+3*F52</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E52">
-        <f>IF(C52-3*F52&lt;0,0,C52-3*F52)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D53">
-        <f>C53+3*F53</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E53">
-        <f>IF(C53-3*F53&lt;0,0,C53-3*F53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D54">
-        <f>C54+3*F54</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E54">
-        <f>IF(C54-3*F54&lt;0,0,C54-3*F54)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D55">
-        <f>C55+3*F55</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E55">
-        <f>IF(C55-3*F55&lt;0,0,C55-3*F55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1818181818181817</v>
       </c>
       <c r="D56">
-        <f>C56+3*F56</f>
+        <f t="shared" si="4"/>
         <v>33.289932947886705</v>
       </c>
       <c r="E56">
-        <f>IF(C56-3*F56&lt;0,0,C56-3*F56)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.369371588689507</v>
       </c>
     </row>
@@ -9830,7 +9862,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B58"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9843,10 +9875,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9854,12 +9886,12 @@
         <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -9867,7 +9899,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -9875,7 +9907,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -9883,7 +9915,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -9891,7 +9923,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B8" s="1">
         <v>13</v>
@@ -9899,7 +9931,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B9" s="1">
         <v>12</v>
@@ -9907,7 +9939,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -9915,7 +9947,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
@@ -9923,7 +9955,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B12" s="1">
         <v>9</v>
@@ -9931,7 +9963,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
@@ -9939,7 +9971,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B14" s="1">
         <v>16</v>
@@ -9947,7 +9979,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -9955,7 +9987,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -9963,7 +9995,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B17" s="1">
         <v>13</v>
@@ -9971,7 +10003,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -9979,7 +10011,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -9987,7 +10019,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -9995,7 +10027,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -10003,7 +10035,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -10011,7 +10043,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -10019,7 +10051,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -10027,7 +10059,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -10035,7 +10067,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -10043,7 +10075,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -10051,7 +10083,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B28" s="1">
         <v>17</v>
@@ -10059,7 +10091,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
@@ -10067,7 +10099,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -10075,7 +10107,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B31" s="1">
         <v>66</v>
@@ -10083,7 +10115,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -10091,7 +10123,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B33" s="1">
         <v>10</v>
@@ -10099,7 +10131,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -10107,7 +10139,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -10115,7 +10147,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -10123,7 +10155,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -10131,7 +10163,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -10139,7 +10171,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -10147,7 +10179,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -10155,7 +10187,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -10163,7 +10195,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -10171,7 +10203,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -10179,7 +10211,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
@@ -10187,7 +10219,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -10195,7 +10227,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -10203,7 +10235,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -10211,7 +10243,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -10219,7 +10251,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -10227,7 +10259,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -10235,7 +10267,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -10243,7 +10275,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
@@ -10251,7 +10283,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B53" s="1">
         <v>7</v>
@@ -10259,7 +10291,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B54" s="1">
         <v>9</v>
@@ -10267,7 +10299,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -10275,7 +10307,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -10283,7 +10315,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -10291,7 +10323,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -10313,10 +10345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4283276-671F-47A2-8758-CDD5C58ACD2B}">
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:H288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10326,29 +10358,29 @@
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>304</v>
       </c>
       <c r="B1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" t="s">
         <v>311</v>
       </c>
-      <c r="C1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D1" t="s">
-        <v>313</v>
-      </c>
       <c r="F1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10363,12 +10395,12 @@
         <v>50.296167247386762</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C3">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10379,12 +10411,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C4">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10394,13 +10426,16 @@
         <f>IF(RAMPART_TicketsID[[#This Row],[commitInMonth]]&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C5">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10410,13 +10445,16 @@
         <f>IF(RAMPART_TicketsID[[#This Row],[commitInMonth]]&gt;0,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C6">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10427,12 +10465,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C7">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10443,12 +10481,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C8">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10459,12 +10497,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C9">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10475,12 +10513,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C10">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10491,12 +10529,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C11">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10507,12 +10545,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C12">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10523,12 +10561,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C13">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10539,12 +10577,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C14">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10555,12 +10593,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C15">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10571,12 +10609,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C16">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10592,7 +10630,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C17">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10608,7 +10646,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C18">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10624,7 +10662,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C19">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10640,7 +10678,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C20">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10656,7 +10694,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C21">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10672,7 +10710,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C22">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10688,7 +10726,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C23">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10704,7 +10742,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C24">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10720,7 +10758,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C25">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10736,7 +10774,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C26">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10752,7 +10790,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C27">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10768,7 +10806,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C28">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10784,7 +10822,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C29">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10800,7 +10838,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C30">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10816,7 +10854,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C31">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10832,7 +10870,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C32">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10848,7 +10886,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C33">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10864,7 +10902,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C34">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10880,7 +10918,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C35">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10896,7 +10934,7 @@
         <v>58</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C36">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10912,7 +10950,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C37">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10928,7 +10966,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C38">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10944,7 +10982,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C39">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10960,7 +10998,7 @@
         <v>65</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C40">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10976,7 +11014,7 @@
         <v>66</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C41">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -10992,7 +11030,7 @@
         <v>67</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C42">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11008,7 +11046,7 @@
         <v>54</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C43">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11024,7 +11062,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C44">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11040,7 +11078,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C45">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11056,7 +11094,7 @@
         <v>72</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C46">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11072,7 +11110,7 @@
         <v>74</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C47">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11088,7 +11126,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C48">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11104,7 +11142,7 @@
         <v>78</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C49">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11120,7 +11158,7 @@
         <v>79</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C50">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11136,7 +11174,7 @@
         <v>81</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C51">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11152,7 +11190,7 @@
         <v>82</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C52">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11168,7 +11206,7 @@
         <v>84</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C53">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11184,7 +11222,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C54">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11200,7 +11238,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C55">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11216,7 +11254,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C56">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11232,7 +11270,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C57">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11248,7 +11286,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C58">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11264,7 +11302,7 @@
         <v>92</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C59">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11280,7 +11318,7 @@
         <v>22</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C60">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11296,7 +11334,7 @@
         <v>96</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C61">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11312,7 +11350,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C62">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11328,7 +11366,7 @@
         <v>80</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C63">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11344,7 +11382,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C64">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11360,7 +11398,7 @@
         <v>95</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C65">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11376,7 +11414,7 @@
         <v>99</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C66">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11392,7 +11430,7 @@
         <v>100</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C67">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11408,7 +11446,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C68">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11424,7 +11462,7 @@
         <v>49</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C69">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11440,7 +11478,7 @@
         <v>97</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C70">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11456,7 +11494,7 @@
         <v>101</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C71">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11472,7 +11510,7 @@
         <v>59</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C72">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11488,7 +11526,7 @@
         <v>48</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C73">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11504,7 +11542,7 @@
         <v>93</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C74">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11520,7 +11558,7 @@
         <v>10</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C75">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11536,7 +11574,7 @@
         <v>32</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C76">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11552,7 +11590,7 @@
         <v>103</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C77">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11568,7 +11606,7 @@
         <v>105</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C78">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11584,7 +11622,7 @@
         <v>106</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C79">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11600,7 +11638,7 @@
         <v>94</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C80">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11616,7 +11654,7 @@
         <v>108</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C81">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11632,7 +11670,7 @@
         <v>107</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C82">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11648,7 +11686,7 @@
         <v>109</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C83">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11664,7 +11702,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C84">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11680,7 +11718,7 @@
         <v>27</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C85">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11696,7 +11734,7 @@
         <v>51</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C86">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11712,7 +11750,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C87">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11728,7 +11766,7 @@
         <v>110</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C88">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11744,7 +11782,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C89">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11760,7 +11798,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C90">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11776,7 +11814,7 @@
         <v>113</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C91">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11792,7 +11830,7 @@
         <v>102</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C92">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11808,7 +11846,7 @@
         <v>63</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C93">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11824,7 +11862,7 @@
         <v>73</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C94">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11840,7 +11878,7 @@
         <v>114</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C95">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11856,7 +11894,7 @@
         <v>117</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C96">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11872,7 +11910,7 @@
         <v>23</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C97">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11888,7 +11926,7 @@
         <v>115</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C98">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11904,7 +11942,7 @@
         <v>112</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C99">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11920,7 +11958,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C100">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11936,7 +11974,7 @@
         <v>62</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C101">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11952,7 +11990,7 @@
         <v>118</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C102">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11968,7 +12006,7 @@
         <v>15</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C103">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -11984,7 +12022,7 @@
         <v>121</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C104">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12000,7 +12038,7 @@
         <v>123</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C105">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12016,7 +12054,7 @@
         <v>124</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C106">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12032,7 +12070,7 @@
         <v>125</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C107">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12048,7 +12086,7 @@
         <v>126</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C108">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12064,7 +12102,7 @@
         <v>127</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C109">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12080,7 +12118,7 @@
         <v>46</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C110">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12096,7 +12134,7 @@
         <v>119</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C111">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12112,7 +12150,7 @@
         <v>90</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C112">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12128,7 +12166,7 @@
         <v>122</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C113">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12144,7 +12182,7 @@
         <v>129</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C114">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12160,7 +12198,7 @@
         <v>131</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C115">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12176,7 +12214,7 @@
         <v>111</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C116">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12192,7 +12230,7 @@
         <v>132</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C117">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12208,7 +12246,7 @@
         <v>130</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C118">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12224,7 +12262,7 @@
         <v>75</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C119">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12240,7 +12278,7 @@
         <v>133</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C120">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12256,7 +12294,7 @@
         <v>116</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C121">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12272,7 +12310,7 @@
         <v>134</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C122">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12288,7 +12326,7 @@
         <v>136</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C123">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12304,7 +12342,7 @@
         <v>138</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C124">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12320,7 +12358,7 @@
         <v>140</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C125">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12336,7 +12374,7 @@
         <v>128</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C126">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12352,7 +12390,7 @@
         <v>141</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C127">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12368,7 +12406,7 @@
         <v>139</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C128">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12384,7 +12422,7 @@
         <v>145</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C129">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12400,7 +12438,7 @@
         <v>135</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C130">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12416,7 +12454,7 @@
         <v>155</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C131">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12432,7 +12470,7 @@
         <v>165</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C132">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12448,7 +12486,7 @@
         <v>166</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C133">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12464,7 +12502,7 @@
         <v>168</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C134">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12480,7 +12518,7 @@
         <v>169</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C135">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12496,7 +12534,7 @@
         <v>159</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C136">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12512,7 +12550,7 @@
         <v>161</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C137">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12528,7 +12566,7 @@
         <v>176</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C138">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12544,7 +12582,7 @@
         <v>177</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C139">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12560,7 +12598,7 @@
         <v>175</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C140">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12576,7 +12614,7 @@
         <v>179</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C141">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12592,7 +12630,7 @@
         <v>180</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C142">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12608,7 +12646,7 @@
         <v>156</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C143">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12624,7 +12662,7 @@
         <v>174</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C144">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12640,7 +12678,7 @@
         <v>182</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C145">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12656,7 +12694,7 @@
         <v>183</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C146">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12672,7 +12710,7 @@
         <v>184</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C147">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12688,7 +12726,7 @@
         <v>186</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C148">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12704,7 +12742,7 @@
         <v>187</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C149">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12720,7 +12758,7 @@
         <v>181</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C150">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12736,7 +12774,7 @@
         <v>188</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C151">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12752,7 +12790,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C152">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12768,7 +12806,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C153">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12784,7 +12822,7 @@
         <v>162</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C154">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12800,7 +12838,7 @@
         <v>192</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C155">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12816,7 +12854,7 @@
         <v>149</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C156">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12832,7 +12870,7 @@
         <v>185</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C157">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12848,7 +12886,7 @@
         <v>191</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C158">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12864,7 +12902,7 @@
         <v>193</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C159">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12880,7 +12918,7 @@
         <v>196</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C160">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12896,7 +12934,7 @@
         <v>226</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C161">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12912,7 +12950,7 @@
         <v>2</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C162">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12928,7 +12966,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C163">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12944,7 +12982,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C164">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12960,7 +12998,7 @@
         <v>17</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C165">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12976,7 +13014,7 @@
         <v>70</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C166">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -12992,7 +13030,7 @@
         <v>83</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C167">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13008,7 +13046,7 @@
         <v>87</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C168">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13024,7 +13062,7 @@
         <v>89</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C169">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13040,7 +13078,7 @@
         <v>98</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C170">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13056,7 +13094,7 @@
         <v>120</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C171">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13072,7 +13110,7 @@
         <v>143</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C172">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13088,7 +13126,7 @@
         <v>148</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C173">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13104,7 +13142,7 @@
         <v>150</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C174">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13120,7 +13158,7 @@
         <v>153</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C175">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13136,7 +13174,7 @@
         <v>160</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C176">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13152,7 +13190,7 @@
         <v>163</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C177">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13168,7 +13206,7 @@
         <v>171</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C178">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13184,7 +13222,7 @@
         <v>172</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C179">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13200,7 +13238,7 @@
         <v>189</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C180">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13216,7 +13254,7 @@
         <v>194</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C181">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13232,7 +13270,7 @@
         <v>197</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C182">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13248,7 +13286,7 @@
         <v>199</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C183">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13264,7 +13302,7 @@
         <v>200</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C184">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13280,7 +13318,7 @@
         <v>202</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C185">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13296,7 +13334,7 @@
         <v>204</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C186">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13312,7 +13350,7 @@
         <v>205</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C187">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13328,7 +13366,7 @@
         <v>207</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C188">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13344,7 +13382,7 @@
         <v>209</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C189">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13360,7 +13398,7 @@
         <v>212</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C190">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13376,7 +13414,7 @@
         <v>213</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C191">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13392,7 +13430,7 @@
         <v>215</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C192">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13408,7 +13446,7 @@
         <v>216</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C193">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13424,7 +13462,7 @@
         <v>217</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C194">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13440,7 +13478,7 @@
         <v>218</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C195">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13456,7 +13494,7 @@
         <v>219</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C196">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13472,7 +13510,7 @@
         <v>220</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C197">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13488,7 +13526,7 @@
         <v>224</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C198">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13504,7 +13542,7 @@
         <v>225</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C199">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13520,7 +13558,7 @@
         <v>228</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C200">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13536,7 +13574,7 @@
         <v>229</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C201">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13552,7 +13590,7 @@
         <v>230</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C202">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13568,7 +13606,7 @@
         <v>231</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C203">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13584,7 +13622,7 @@
         <v>232</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C204">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13600,7 +13638,7 @@
         <v>233</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C205">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13616,7 +13654,7 @@
         <v>91</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C206">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13632,7 +13670,7 @@
         <v>104</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C207">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13648,7 +13686,7 @@
         <v>137</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C208">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13664,7 +13702,7 @@
         <v>144</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C209">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13680,7 +13718,7 @@
         <v>147</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C210">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13696,7 +13734,7 @@
         <v>154</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C211">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13712,7 +13750,7 @@
         <v>158</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C212">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13728,7 +13766,7 @@
         <v>164</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C213">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13744,7 +13782,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C214">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13760,7 +13798,7 @@
         <v>173</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C215">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13776,7 +13814,7 @@
         <v>190</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C216">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13792,7 +13830,7 @@
         <v>195</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C217">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13808,7 +13846,7 @@
         <v>201</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C218">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13824,7 +13862,7 @@
         <v>206</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C219">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13840,7 +13878,7 @@
         <v>210</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C220">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13856,7 +13894,7 @@
         <v>214</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C221">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13872,7 +13910,7 @@
         <v>234</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C222">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13888,7 +13926,7 @@
         <v>235</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C223">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13904,7 +13942,7 @@
         <v>236</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C224">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13920,7 +13958,7 @@
         <v>237</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C225">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13936,7 +13974,7 @@
         <v>167</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C226">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13952,7 +13990,7 @@
         <v>211</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C227">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13968,7 +14006,7 @@
         <v>222</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C228">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -13984,7 +14022,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C229">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14000,7 +14038,7 @@
         <v>239</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C230">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14016,7 +14054,7 @@
         <v>240</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C231">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14032,7 +14070,7 @@
         <v>223</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C232">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14048,7 +14086,7 @@
         <v>238</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C233">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14064,7 +14102,7 @@
         <v>71</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C234">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14080,7 +14118,7 @@
         <v>157</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C235">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14096,7 +14134,7 @@
         <v>198</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C236">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14112,7 +14150,7 @@
         <v>146</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C237">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14128,7 +14166,7 @@
         <v>178</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C238">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14144,7 +14182,7 @@
         <v>221</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C239">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14160,7 +14198,7 @@
         <v>242</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C240">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14176,7 +14214,7 @@
         <v>243</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C241">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14192,7 +14230,7 @@
         <v>245</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C242">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14208,7 +14246,7 @@
         <v>246</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C243">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14224,7 +14262,7 @@
         <v>247</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C244">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14240,7 +14278,7 @@
         <v>241</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C245">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14256,7 +14294,7 @@
         <v>251</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C246">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14272,7 +14310,7 @@
         <v>252</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C247">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14288,7 +14326,7 @@
         <v>248</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C248">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14304,7 +14342,7 @@
         <v>203</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C249">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14320,7 +14358,7 @@
         <v>254</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C250">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14336,7 +14374,7 @@
         <v>255</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C251">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14352,7 +14390,7 @@
         <v>256</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C252">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14368,7 +14406,7 @@
         <v>208</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C253">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14384,7 +14422,7 @@
         <v>258</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C254">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14400,7 +14438,7 @@
         <v>261</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C255">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14416,7 +14454,7 @@
         <v>262</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C256">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14432,7 +14470,7 @@
         <v>260</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C257">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14448,7 +14486,7 @@
         <v>253</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C258">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14464,7 +14502,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C259">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14480,7 +14518,7 @@
         <v>271</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C260">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14496,7 +14534,7 @@
         <v>272</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C261" s="7">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14512,7 +14550,7 @@
         <v>270</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C262">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14528,7 +14566,7 @@
         <v>267</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C263">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14544,7 +14582,7 @@
         <v>274</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C264">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14560,7 +14598,7 @@
         <v>273</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C265" s="7">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14576,7 +14614,7 @@
         <v>277</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C266">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14592,7 +14630,7 @@
         <v>279</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C267">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14608,7 +14646,7 @@
         <v>278</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C268">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14624,7 +14662,7 @@
         <v>259</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C269">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14640,7 +14678,7 @@
         <v>276</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C270">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14656,7 +14694,7 @@
         <v>250</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C271">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14672,7 +14710,7 @@
         <v>263</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C272">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14688,7 +14726,7 @@
         <v>264</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C273">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14704,7 +14742,7 @@
         <v>265</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C274">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14720,7 +14758,7 @@
         <v>268</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C275">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14736,7 +14774,7 @@
         <v>142</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C276">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14752,7 +14790,7 @@
         <v>244</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C277">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14768,7 +14806,7 @@
         <v>275</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C278">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14784,7 +14822,7 @@
         <v>280</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C279">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14800,7 +14838,7 @@
         <v>282</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C280">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14816,7 +14854,7 @@
         <v>283</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C281">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14832,7 +14870,7 @@
         <v>249</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C282">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14848,7 +14886,7 @@
         <v>266</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C283">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14864,7 +14902,7 @@
         <v>281</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C284">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14880,7 +14918,7 @@
         <v>269</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C285">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14896,7 +14934,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C286">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14912,7 +14950,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C287">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14928,7 +14966,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C288">
         <f>IFERROR(VLOOKUP(RAMPART_TicketsID[[#This Row],[resolutionMonth]],RAMPART_commit_months[],2,FALSE),0)</f>
@@ -14953,7 +14991,7 @@
   <dimension ref="A1:I413"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14973,6 +15011,9 @@
       <c r="C1" t="s">
         <v>292</v>
       </c>
+      <c r="F1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -14996,7 +15037,7 @@
         <v>81.796116504854368</v>
       </c>
       <c r="I2" t="s">
-        <v>308</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -15021,7 +15062,7 @@
         <v>18.203883495145632</v>
       </c>
       <c r="I3" t="s">
-        <v>309</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -15041,6 +15082,9 @@
       <c r="F4" t="s">
         <v>307</v>
       </c>
+      <c r="G4" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -15063,6 +15107,9 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
+      <c r="E6" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -15074,6 +15121,9 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>8011</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -15084,6 +15134,13 @@
       </c>
       <c r="C8" t="b">
         <v>0</v>
+      </c>
+      <c r="E8">
+        <f>(1-E4/E7)*100</f>
+        <v>94.857071526650856</v>
+      </c>
+      <c r="F8" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -19551,10 +19608,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917376D6-E68C-4BD5-9A53-375F3835410F}">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19573,7 +19630,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B2">
         <v>27</v>
@@ -19581,7 +19638,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -19589,7 +19646,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B4">
         <v>51</v>
@@ -19597,7 +19654,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B5">
         <v>178</v>
@@ -19605,7 +19662,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -19613,7 +19670,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B7">
         <v>278</v>
@@ -19621,7 +19678,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B8">
         <v>51</v>
@@ -19629,7 +19686,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B9">
         <v>77</v>
@@ -19637,7 +19694,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B10">
         <v>251</v>
@@ -19645,7 +19702,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B11">
         <v>344</v>
@@ -19653,7 +19710,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B12">
         <v>225</v>
@@ -19661,7 +19718,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B13">
         <v>301</v>
@@ -19669,7 +19726,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B14">
         <v>295</v>
@@ -19677,7 +19734,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B15">
         <v>225</v>
@@ -19685,7 +19742,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B16">
         <v>203</v>
@@ -19693,7 +19750,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B17">
         <v>347</v>
@@ -19701,7 +19758,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B18">
         <v>416</v>
@@ -19709,7 +19766,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B19">
         <v>165</v>
@@ -19717,7 +19774,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B20">
         <v>298</v>
@@ -19725,7 +19782,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B21">
         <v>324</v>
@@ -19733,7 +19790,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B22">
         <v>296</v>
@@ -19741,7 +19798,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B23">
         <v>190</v>
@@ -19749,7 +19806,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B24">
         <v>176</v>
@@ -19757,7 +19814,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B25">
         <v>226</v>
@@ -19765,7 +19822,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B26">
         <v>448</v>
@@ -19773,7 +19830,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B27">
         <v>594</v>
@@ -19781,7 +19838,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B28">
         <v>415</v>
@@ -19789,7 +19846,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B29">
         <v>23</v>
@@ -19797,7 +19854,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B30">
         <v>13</v>
@@ -19805,7 +19862,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B31">
         <v>33</v>
@@ -19813,7 +19870,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -19821,7 +19878,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -19829,7 +19886,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B34">
         <v>26</v>
@@ -19837,7 +19894,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -19845,7 +19902,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B36">
         <v>78</v>
@@ -19853,7 +19910,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B37">
         <v>49</v>
@@ -19861,7 +19918,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -19869,7 +19926,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -19877,7 +19934,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B40">
         <v>17</v>
@@ -19885,7 +19942,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B41">
         <v>14</v>
@@ -19893,7 +19950,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B42">
         <v>91</v>
@@ -19901,7 +19958,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B43">
         <v>35</v>
@@ -19909,7 +19966,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B44">
         <v>49</v>
@@ -19917,7 +19974,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -19925,7 +19982,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B46">
         <v>53</v>
@@ -19933,7 +19990,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B47">
         <v>75</v>
@@ -19941,7 +19998,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -19949,7 +20006,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -19957,7 +20014,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -19965,7 +20022,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -19973,7 +20030,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -19981,7 +20038,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -19989,7 +20046,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -19997,7 +20054,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -20005,7 +20062,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B56">
         <v>16</v>
@@ -20013,7 +20070,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -20021,7 +20078,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -20029,7 +20086,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -20037,7 +20094,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B60">
         <v>39</v>
@@ -20045,7 +20102,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B61">
         <v>17</v>
@@ -20053,7 +20110,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -20061,7 +20118,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -20069,7 +20126,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -20077,7 +20134,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -20085,7 +20142,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -20093,7 +20150,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -20101,7 +20158,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -20109,7 +20166,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -20117,7 +20174,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -20125,7 +20182,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -20133,7 +20190,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -20141,7 +20198,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B73">
         <v>77</v>
@@ -20149,7 +20206,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B74">
         <v>40</v>
@@ -20157,7 +20214,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B75">
         <v>38</v>
@@ -20165,7 +20222,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B76">
         <v>17</v>
@@ -20173,7 +20230,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -20181,7 +20238,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -20189,7 +20246,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B79">
         <v>34</v>
@@ -20197,7 +20254,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B80">
         <v>9</v>
@@ -20205,7 +20262,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B81">
         <v>11</v>
@@ -20213,7 +20270,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B82">
         <v>37</v>
@@ -20221,7 +20278,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B83">
         <v>22</v>
@@ -20229,7 +20286,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -20237,7 +20294,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B85">
         <v>16</v>
@@ -20245,7 +20302,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -20253,7 +20310,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B87">
         <v>13</v>
@@ -20261,7 +20318,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B88">
         <v>18</v>
@@ -20269,7 +20326,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B89">
         <v>28</v>
@@ -20277,7 +20334,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -20285,7 +20342,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B91">
         <v>13</v>
@@ -20293,7 +20350,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -20301,7 +20358,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -20309,7 +20366,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -20317,7 +20374,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -20325,7 +20382,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -20333,7 +20390,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -20341,7 +20398,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -20349,7 +20406,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B99">
         <v>11</v>
@@ -20357,7 +20414,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -20365,7 +20422,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -20373,7 +20430,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -20381,7 +20438,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B103">
         <v>14</v>
@@ -20389,7 +20446,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -20397,7 +20454,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B105">
         <v>112</v>
@@ -20405,7 +20462,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B106">
         <v>23</v>
@@ -20413,7 +20470,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -20421,7 +20478,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -20429,7 +20486,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -20437,7 +20494,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -20445,7 +20502,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B111">
         <v>124</v>
@@ -20453,7 +20510,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -20461,7 +20518,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -20469,7 +20526,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -20477,7 +20534,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B115">
         <v>12</v>
@@ -20485,7 +20542,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -20493,7 +20550,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -20501,7 +20558,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -20509,7 +20566,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B119">
         <v>2</v>
@@ -20517,7 +20574,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B120">
         <v>9</v>
@@ -20525,7 +20582,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -20533,7 +20590,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -20541,10 +20598,19 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B123">
         <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B124">
+        <f>SUM(RAMPART_commit_months[commits])</f>
+        <v>8011</v>
       </c>
     </row>
   </sheetData>

--- a/ProcessControlChart.xlsx
+++ b/ProcessControlChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Giacomo\Universita\ISW2\RampartProcessoControlChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C42CB6-EFB3-4C4B-BD27-021A26573ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB2CB2-0A5F-42B6-B208-17A1DDA04B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60250077-E9D7-4A34-AB1D-DB9B51EB99DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{60250077-E9D7-4A34-AB1D-DB9B51EB99DB}"/>
   </bookViews>
   <sheets>
     <sheet name="RAMPART-processControlChartData" sheetId="14" r:id="rId1"/>
@@ -6917,8 +6917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E30E199-116B-44DB-8187-AA17A36C8967}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7396,8 +7396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C77D08-66E6-422A-8F83-402CD0557D6B}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ProcessControlChart.xlsx
+++ b/ProcessControlChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Giacomo\Universita\ISW2\RampartProcessoControlChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB2CB2-0A5F-42B6-B208-17A1DDA04B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B159E32-E244-49C5-B2EB-1432AF56B6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{60250077-E9D7-4A34-AB1D-DB9B51EB99DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60250077-E9D7-4A34-AB1D-DB9B51EB99DB}"/>
   </bookViews>
   <sheets>
     <sheet name="RAMPART-processControlChartData" sheetId="14" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="230">
   <si>
     <t>RAMPART-1</t>
   </si>
@@ -746,6 +746,18 @@
   </si>
   <si>
     <t>trueLowerBound</t>
+  </si>
+  <si>
+    <t>Nella media e nell'upper bound sono esclusi i mesi con 0 commit e 0 ticket.</t>
+  </si>
+  <si>
+    <t>3*StdDev</t>
+  </si>
+  <si>
+    <t>StdDev</t>
+  </si>
+  <si>
+    <t>Nella media e nell'upper bound sono escluse le release con 0 commit e 0 ticket.</t>
   </si>
 </sst>
 </file>
@@ -833,10 +845,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -897,7 +909,7 @@
               <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Process Control Chart - Fixed Tickets of Apache RAMPART</a:t>
+              <a:t>Process Control Chart - Fixed Tickets per Release of Apache RAMPART</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT">
               <a:effectLst/>
@@ -1608,6 +1620,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1860,12 +1873,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Process Control Chart - Monthly Fixed Tickets of Apache RAMPART</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35704855643044614"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.18040834747855511"/>
+          <c:y val="3.0708388686475418E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3145,385 +3188,385 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="127"/>
                 <c:pt idx="0">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.3622047244094488</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3953,385 +3996,385 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="127"/>
                 <c:pt idx="0">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>13.62316229966275</c:v>
+                  <c:v>16.510000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,6 +5214,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>#Mesi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5236,6 +5334,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>#Fixed tickets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6574,11 +6727,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DC82C39-3192-4A50-ACFB-928CE46692DD}" name="RAMPART_processControlChartData" displayName="RAMPART_processControlChartData" ref="A1:I15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I15" xr:uid="{1DC82C39-3192-4A50-ACFB-928CE46692DD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{319ECB77-6049-4B0D-9C4E-93076722F292}" uniqueName="1" name="project" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{319ECB77-6049-4B0D-9C4E-93076722F292}" uniqueName="1" name="project" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2D51F0EC-4CB9-4161-8A99-81DFACDCD0AA}" uniqueName="2" name="versionName" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{86382BDF-F0FD-4C4B-A1A4-627BE2E95A27}" uniqueName="3" name="commitInRelease" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{32B27FF6-F265-41FA-B0E2-76B5F263E606}" uniqueName="4" name="version" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{C7621E1D-1D76-40C5-8FD0-0FF928623D62}" uniqueName="5" name="releaseDate" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C7621E1D-1D76-40C5-8FD0-0FF928623D62}" uniqueName="5" name="releaseDate" queryTableFieldId="5" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{A6A9711B-1844-4703-8935-ECA6EED612A8}" uniqueName="6" name="fixedTicketWithCommit" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{3772DFC4-F399-491C-B554-DA21C1F4FEFD}" uniqueName="7" name="averageTicketPerRelease" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{C5BA8549-2AB4-4F7A-BF74-B78F2CC209B3}" uniqueName="8" name="upperBound" queryTableFieldId="8"/>
@@ -6592,11 +6745,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5966D529-9241-4554-B5C6-7B86EFDF3EFB}" name="RAMPART_monthProcessControlChartData" displayName="RAMPART_monthProcessControlChartData" ref="B1:J128" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B1:J128" xr:uid="{5966D529-9241-4554-B5C6-7B86EFDF3EFB}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1EC51C81-3BC1-4359-BF0D-70F4C9FBD93F}" uniqueName="1" name="project" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{9F88C803-9749-4D25-BB40-459230A15940}" uniqueName="2" name="versionName" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1EC51C81-3BC1-4359-BF0D-70F4C9FBD93F}" uniqueName="1" name="project" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9F88C803-9749-4D25-BB40-459230A15940}" uniqueName="2" name="versionName" queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{7E0603D0-0F20-4DE0-B10F-EE3EC889ECC9}" uniqueName="3" name="commitInMonth" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{C365E5D1-D45E-43DD-85B5-18F9EA7B4E57}" uniqueName="4" name="version" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{2A3E07A7-8F5A-4BA9-AF7F-64131EA6EA7E}" uniqueName="5" name="yearMonthOfResolution" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{2A3E07A7-8F5A-4BA9-AF7F-64131EA6EA7E}" uniqueName="5" name="yearMonthOfResolution" queryTableFieldId="5" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{3A6813BB-DB09-451E-89D4-CAEE6094A224}" uniqueName="6" name="fixedTicketWithCommit" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{9B3E5D40-8E74-4A26-A1AD-9B6017C9EA89}" uniqueName="7" name="averageTicketPerMonth" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{F6B5EC53-C8D6-4A07-9FF5-73E3483A079A}" uniqueName="8" name="upperBound" queryTableFieldId="8"/>
@@ -6610,8 +6763,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8155C627-5879-49E7-A113-7DA5FA42E2C7}" name="RAMPART_git_commits" displayName="RAMPART_git_commits" ref="A1:C230" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C230" xr:uid="{EAA86344-6220-42DF-9F6C-8E7358D67E3C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{244929E4-A898-41B6-A67D-D75A9E627FE7}" uniqueName="1" name="ticketID" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{17AED02B-BDF0-404D-9D95-CE8654B09036}" uniqueName="2" name="commitDate" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{244929E4-A898-41B6-A67D-D75A9E627FE7}" uniqueName="1" name="ticketID" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{17AED02B-BDF0-404D-9D95-CE8654B09036}" uniqueName="2" name="commitDate" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{2835430D-B7A2-4E06-A415-D44290C72112}" uniqueName="3" name="hasFixedTicket" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6917,8 +7070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E30E199-116B-44DB-8187-AA17A36C8967}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7266,6 +7419,9 @@
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="K11" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -7394,10 +7550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C77D08-66E6-422A-8F83-402CD0557D6B}">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F55"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7413,7 +7569,7 @@
     <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>224</v>
       </c>
@@ -7444,11 +7600,17 @@
       <c r="J1" t="s">
         <v>204</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f>1</f>
         <v>1</v>
@@ -7472,22 +7634,28 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I2">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <f>H4-3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>-10.898752850843854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <f>N2/3</f>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="N2">
+        <f>RAMPART_monthProcessControlChartData[[#This Row],[upperBound]]-RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]</f>
+        <v>14.500000000000002</v>
+      </c>
+      <c r="O2">
+        <f>-12.5</f>
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <f>A2+1</f>
         <v>2</v>
@@ -7511,18 +7679,19 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I3">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -7546,18 +7715,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I4">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7581,18 +7748,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I5">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7616,18 +7781,16 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I6">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7651,18 +7814,16 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I7">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7686,18 +7847,16 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I8">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7721,18 +7880,16 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I9">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7747,7 +7904,7 @@
         <v>16</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <v>39326</v>
@@ -7756,18 +7913,16 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I10">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7791,18 +7946,16 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I11">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7826,18 +7979,16 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I12">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7861,18 +8012,16 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I13">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7896,18 +8045,16 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I14">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7931,18 +8078,16 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I15">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7966,12 +8111,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I16">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -8001,12 +8144,10 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I17">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -8036,12 +8177,10 @@
         <v>11</v>
       </c>
       <c r="H18">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I18">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -8071,12 +8210,10 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I19">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -8106,12 +8243,10 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I20">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -8141,12 +8276,10 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I21">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -8176,12 +8309,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I22">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -8211,12 +8342,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I23">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -8246,12 +8375,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I24">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -8281,12 +8408,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I25">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -8316,12 +8441,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I26">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -8351,12 +8474,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I27">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -8386,12 +8507,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I28">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -8421,12 +8540,10 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I29">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -8456,12 +8573,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I30">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -8491,12 +8606,10 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I31">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -8526,12 +8639,10 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I32">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -8561,12 +8672,10 @@
         <v>14</v>
       </c>
       <c r="H33">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I33">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -8596,12 +8705,10 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I34">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -8631,12 +8738,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I35">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -8666,12 +8771,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I36">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -8701,12 +8804,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I37">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -8736,12 +8837,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I38">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -8771,12 +8870,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I39">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -8806,12 +8903,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I40">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -8841,12 +8936,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I41">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -8876,12 +8969,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I42">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -8911,12 +9002,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I43">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -8946,12 +9035,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I44">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -8981,12 +9068,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I45">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -9016,12 +9101,10 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I46">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -9051,12 +9134,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I47">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -9086,12 +9167,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I48">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -9121,12 +9200,10 @@
         <v>40</v>
       </c>
       <c r="H49">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I49">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -9156,12 +9233,10 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I50">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -9191,12 +9266,10 @@
         <v>6</v>
       </c>
       <c r="H51">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I51">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -9226,12 +9299,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I52">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -9261,12 +9332,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I53">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -9296,12 +9365,10 @@
         <v>2</v>
       </c>
       <c r="H54">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I54">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -9331,12 +9398,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I55">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -9366,12 +9431,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I56">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -9401,12 +9464,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I57">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -9436,12 +9497,10 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I58">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -9471,12 +9530,10 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I59">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -9506,12 +9563,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I60">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -9541,12 +9596,10 @@
         <v>3</v>
       </c>
       <c r="H61">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I61">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -9576,12 +9629,10 @@
         <v>2</v>
       </c>
       <c r="H62">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I62">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -9611,12 +9662,10 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I63">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -9646,12 +9695,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I64">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -9681,12 +9728,10 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I65">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -9716,12 +9761,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I66">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -9751,12 +9794,10 @@
         <v>3</v>
       </c>
       <c r="H67">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I67">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -9786,12 +9827,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I68">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -9821,12 +9860,10 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I69">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -9856,12 +9893,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I70">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -9891,12 +9926,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I71">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -9926,12 +9959,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I72">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -9961,12 +9992,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I73">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -9996,12 +10025,10 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I74">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -10031,12 +10058,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I75">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -10066,12 +10091,10 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I76">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -10101,12 +10124,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I77">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -10136,12 +10157,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I78">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -10171,12 +10190,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I79">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -10206,12 +10223,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I80">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -10241,12 +10256,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I81">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -10276,12 +10289,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I82">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -10311,12 +10322,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I83">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -10346,12 +10355,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I84">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -10381,12 +10388,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I85">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -10416,12 +10421,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I86">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -10451,12 +10454,10 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I87">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -10486,12 +10487,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I88">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -10521,12 +10520,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I89">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -10556,12 +10553,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I90">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -10591,12 +10586,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I91">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -10626,12 +10619,10 @@
         <v>2</v>
       </c>
       <c r="H92">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I92">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -10661,12 +10652,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I93">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -10696,12 +10685,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I94">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -10731,12 +10718,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I95">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -10766,12 +10751,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I96">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -10801,12 +10784,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I97">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -10836,12 +10817,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I98">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -10871,12 +10850,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I99">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -10906,12 +10883,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I100">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -10941,12 +10916,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I101">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -10976,12 +10949,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I102">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -11011,12 +10982,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I103">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -11046,12 +11015,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I104">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -11081,12 +11048,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I105">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -11116,12 +11081,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I106">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -11151,12 +11114,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I107">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -11186,12 +11147,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I108">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -11221,12 +11180,10 @@
         <v>6</v>
       </c>
       <c r="H109">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I109">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -11256,12 +11213,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I110">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -11291,12 +11246,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I111">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -11326,12 +11279,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I112">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -11361,12 +11312,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I113">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -11396,12 +11345,10 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I114">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -11431,12 +11378,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I115">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -11466,12 +11411,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I116">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -11501,12 +11444,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I117">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -11536,12 +11477,10 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I118">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -11571,12 +11510,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I119">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -11606,12 +11543,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I120">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -11641,12 +11576,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I121">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -11676,12 +11609,10 @@
         <v>5</v>
       </c>
       <c r="H122">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I122">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -11711,12 +11642,10 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I123">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -11746,12 +11675,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I124">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -11781,12 +11708,10 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I125">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -11816,12 +11741,10 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I126">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -11851,12 +11774,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I127">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -11886,12 +11807,10 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <f>AVERAGE(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>1.3622047244094488</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I128">
-        <f>RAMPART_monthProcessControlChartData[[#This Row],[averageTicketPerMonth]]+3*_xlfn.STDEV.P(RAMPART_monthProcessControlChartData[fixedTicketWithCommit])</f>
-        <v>13.62316229966275</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -11912,7 +11831,7 @@
   <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
